--- a/thresholds/IGCSE/sociology/sociology-thresholds.xlsx
+++ b/thresholds/IGCSE/sociology/sociology-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,67 +616,67 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="C5" t="n">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="E5" t="n">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="F5" t="n">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="G5" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I5" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>November 2022</t>
+          <t>June 2022</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AX 11,21</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>150</v>
       </c>
       <c r="C6" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D6" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F6" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G6" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H6" t="n">
         <v>40</v>
@@ -698,26 +698,26 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23</t>
+          <t>AY 12,22</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>150</v>
       </c>
       <c r="C7" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H7" t="n">
         <v>40</v>
@@ -739,32 +739,32 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21</t>
+          <t>AZ 13,23</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>150</v>
       </c>
       <c r="C8" t="n">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D8" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E8" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F8" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G8" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H8" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -773,14 +773,14 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AX 11,21</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -821,7 +821,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23</t>
+          <t>AY 12,22</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -862,32 +862,32 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21</t>
+          <t>AZ 13,23</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>150</v>
       </c>
       <c r="C11" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D11" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E11" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F11" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G11" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H11" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I11" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -896,14 +896,14 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AX 11,21</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -944,7 +944,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23</t>
+          <t>AY 12,22</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -985,89 +985,89 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21</t>
+          <t>AZ 13,23</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>150</v>
       </c>
       <c r="C14" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G14" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H14" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I14" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="C15" t="n">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="D15" t="n">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="E15" t="n">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="F15" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="G15" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H15" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I15" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23</t>
+          <t>AX 11,21</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1108,118 +1108,118 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21</t>
+          <t>AY 12,22</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C17" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D17" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E17" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F17" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G17" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H17" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I17" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AZ 13,23</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C18" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D18" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E18" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F18" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G18" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H18" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I18" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23</t>
+          <t>AX 11,21</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>160</v>
       </c>
       <c r="C19" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D19" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E19" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F19" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G19" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H19" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I19" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1231,105 +1231,105 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21</t>
+          <t>AY 12,22</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C20" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D20" t="n">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E20" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F20" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G20" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H20" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I20" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AZ 13,23</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C21" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D21" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E21" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F21" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G21" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H21" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I21" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23</t>
+          <t>AX 11,21</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>150</v>
       </c>
       <c r="C22" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D22" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E22" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F22" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" t="n">
         <v>51</v>
@@ -1346,6 +1346,88 @@
         </is>
       </c>
       <c r="K22" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>AY 12,22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>150</v>
+      </c>
+      <c r="C23" t="n">
+        <v>122</v>
+      </c>
+      <c r="D23" t="n">
+        <v>103</v>
+      </c>
+      <c r="E23" t="n">
+        <v>84</v>
+      </c>
+      <c r="F23" t="n">
+        <v>65</v>
+      </c>
+      <c r="G23" t="n">
+        <v>52</v>
+      </c>
+      <c r="H23" t="n">
+        <v>39</v>
+      </c>
+      <c r="I23" t="n">
+        <v>27</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>AZ 13,23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>150</v>
+      </c>
+      <c r="C24" t="n">
+        <v>121</v>
+      </c>
+      <c r="D24" t="n">
+        <v>102</v>
+      </c>
+      <c r="E24" t="n">
+        <v>83</v>
+      </c>
+      <c r="F24" t="n">
+        <v>64</v>
+      </c>
+      <c r="G24" t="n">
+        <v>51</v>
+      </c>
+      <c r="H24" t="n">
+        <v>39</v>
+      </c>
+      <c r="I24" t="n">
+        <v>27</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>November 2024</t>
         </is>
